--- a/LeadSecond.xlsx
+++ b/LeadSecond.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aneesha\Documents\GitHub\PavithraProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C253A9B3-C5D1-4CE6-BE48-E25B8D52D82D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A87D00-3A70-409A-991A-DAE0BEE1C393}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
